--- a/tests/testdata_fmuobs/fmuobs_config.xlsx
+++ b/tests/testdata_fmuobs/fmuobs_config.xlsx
@@ -9,19 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="output" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">observation_type</t>
   </si>
@@ -32,13 +31,16 @@
     <t xml:space="preserve">input_file</t>
   </si>
   <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
     <t xml:space="preserve">active</t>
   </si>
   <si>
     <t xml:space="preserve">summary</t>
   </si>
   <si>
-    <t xml:space="preserve">summary_input_file.txt</t>
+    <t xml:space="preserve">drogon_summary_input.txt</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -50,25 +52,16 @@
     <t xml:space="preserve">rft</t>
   </si>
   <si>
-    <t xml:space="preserve">rft_input_file.txt</t>
+    <t xml:space="preserve">drogon_rft_input.ods</t>
   </si>
   <si>
     <t xml:space="preserve">seismic</t>
   </si>
   <si>
-    <t xml:space="preserve">seismic_input_file.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fopt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
+    <t xml:space="preserve">drogon_seismic_input.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP_2020_2018_TOP</t>
   </si>
 </sst>
 </file>
@@ -78,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,16 +92,105 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lohit Devanagari"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -116,8 +198,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,6 +238,22 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -148,14 +261,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -164,18 +353,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -191,128 +381,59 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>